--- a/metrics/MAPE/upto time/Macroalbuminuria (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Macroalbuminuria (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8469304824940.189</v>
+        <v>7661502161778.223</v>
       </c>
       <c r="C3" t="n">
-        <v>8049555091261.902</v>
+        <v>8765407653351.695</v>
       </c>
       <c r="D3" t="n">
-        <v>7866743163327.939</v>
+        <v>8039806949188.292</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9267025625072.686</v>
+        <v>9714350033332.219</v>
       </c>
       <c r="C4" t="n">
-        <v>9393872763769.996</v>
+        <v>9423580249504.246</v>
       </c>
       <c r="D4" t="n">
-        <v>9758217391787.143</v>
+        <v>9515496193409.109</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>601098751142558.9</v>
+        <v>633844114616328.2</v>
       </c>
       <c r="C5" t="n">
-        <v>599005743483855.9</v>
+        <v>634385589062650.1</v>
       </c>
       <c r="D5" t="n">
-        <v>537951034874626.1</v>
+        <v>629045270469963.6</v>
       </c>
     </row>
   </sheetData>
